--- a/Orthogonal Vectors.xlsx
+++ b/Orthogonal Vectors.xlsx
@@ -536,7 +536,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="Q2" sqref="B2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
